--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vegfa-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vegfa-Nrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.979788333333333</v>
+        <v>2.162809</v>
       </c>
       <c r="H2">
-        <v>14.939365</v>
+        <v>6.488427000000001</v>
       </c>
       <c r="I2">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="J2">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N2">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O2">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P2">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q2">
-        <v>587.8491348023895</v>
+        <v>275.5402581910403</v>
       </c>
       <c r="R2">
-        <v>5290.642213221505</v>
+        <v>2479.862323719363</v>
       </c>
       <c r="S2">
-        <v>0.06016045471780388</v>
+        <v>0.03268483460859736</v>
       </c>
       <c r="T2">
-        <v>0.0601604547178039</v>
+        <v>0.03268483460859736</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.979788333333333</v>
+        <v>2.162809</v>
       </c>
       <c r="H3">
-        <v>14.939365</v>
+        <v>6.488427000000001</v>
       </c>
       <c r="I3">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="J3">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N3">
         <v>178.097596</v>
       </c>
       <c r="O3">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P3">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q3">
-        <v>295.6294435851711</v>
+        <v>128.3970278357213</v>
       </c>
       <c r="R3">
-        <v>2660.66499226654</v>
+        <v>1155.573250521492</v>
       </c>
       <c r="S3">
-        <v>0.03025470431292528</v>
+        <v>0.01523057155639438</v>
       </c>
       <c r="T3">
-        <v>0.03025470431292529</v>
+        <v>0.01523057155639438</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.979788333333333</v>
+        <v>2.162809</v>
       </c>
       <c r="H4">
-        <v>14.939365</v>
+        <v>6.488427000000001</v>
       </c>
       <c r="I4">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="J4">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N4">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O4">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P4">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q4">
-        <v>95.67788499682779</v>
+        <v>35.97346499943167</v>
       </c>
       <c r="R4">
-        <v>861.10096497145</v>
+        <v>323.761184994885</v>
       </c>
       <c r="S4">
-        <v>0.009791670561498475</v>
+        <v>0.004267204950462744</v>
       </c>
       <c r="T4">
-        <v>0.009791670561498477</v>
+        <v>0.004267204950462744</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.979788333333333</v>
+        <v>2.162809</v>
       </c>
       <c r="H5">
-        <v>14.939365</v>
+        <v>6.488427000000001</v>
       </c>
       <c r="I5">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="J5">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N5">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O5">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P5">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q5">
-        <v>283.0763881747161</v>
+        <v>129.5579307061344</v>
       </c>
       <c r="R5">
-        <v>2547.687493572445</v>
+        <v>1166.021376355209</v>
       </c>
       <c r="S5">
-        <v>0.02897002517183132</v>
+        <v>0.01536827890473325</v>
       </c>
       <c r="T5">
-        <v>0.02897002517183132</v>
+        <v>0.01536827890473325</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>54.058512</v>
       </c>
       <c r="I6">
-        <v>0.467430078412646</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="J6">
-        <v>0.4674300784126461</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N6">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O6">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P6">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q6">
-        <v>2127.148610928549</v>
+        <v>2295.671409095525</v>
       </c>
       <c r="R6">
-        <v>19144.33749835694</v>
+        <v>20661.04268185973</v>
       </c>
       <c r="S6">
-        <v>0.2176922957092124</v>
+        <v>0.2723146186135523</v>
       </c>
       <c r="T6">
-        <v>0.2176922957092125</v>
+        <v>0.2723146186135523</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>54.058512</v>
       </c>
       <c r="I7">
-        <v>0.467430078412646</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="J7">
-        <v>0.4674300784126461</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N7">
         <v>178.097596</v>
       </c>
       <c r="O7">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P7">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q7">
         <v>1069.743447837461</v>
       </c>
       <c r="R7">
-        <v>9627.691030537153</v>
+        <v>9627.691030537151</v>
       </c>
       <c r="S7">
-        <v>0.1094774976149738</v>
+        <v>0.1268939351938774</v>
       </c>
       <c r="T7">
-        <v>0.1094774976149738</v>
+        <v>0.1268939351938774</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>54.058512</v>
       </c>
       <c r="I8">
-        <v>0.467430078412646</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="J8">
-        <v>0.4674300784126461</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N8">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O8">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P8">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q8">
-        <v>346.2131150979734</v>
+        <v>299.7139351885067</v>
       </c>
       <c r="R8">
-        <v>3115.91803588176</v>
+        <v>2697.42541669656</v>
       </c>
       <c r="S8">
-        <v>0.03543143504083421</v>
+        <v>0.03555233803525101</v>
       </c>
       <c r="T8">
-        <v>0.03543143504083421</v>
+        <v>0.03555233803525101</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>54.058512</v>
       </c>
       <c r="I9">
-        <v>0.467430078412646</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="J9">
-        <v>0.4674300784126461</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N9">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O9">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P9">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q9">
-        <v>1024.319864134757</v>
+        <v>1079.41554274599</v>
       </c>
       <c r="R9">
-        <v>9218.878777212816</v>
+        <v>9714.739884713905</v>
       </c>
       <c r="S9">
-        <v>0.1048288500476255</v>
+        <v>0.1280412478387858</v>
       </c>
       <c r="T9">
-        <v>0.1048288500476256</v>
+        <v>0.1280412478387858</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.798175000000001</v>
+        <v>4.650307000000001</v>
       </c>
       <c r="H10">
-        <v>20.394525</v>
+        <v>13.950921</v>
       </c>
       <c r="I10">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="J10">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N10">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O10">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P10">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q10">
-        <v>802.5042480691584</v>
+        <v>592.4456535216943</v>
       </c>
       <c r="R10">
-        <v>7222.538232622425</v>
+        <v>5332.01088169525</v>
       </c>
       <c r="S10">
-        <v>0.08212824961125317</v>
+        <v>0.07027643919282865</v>
       </c>
       <c r="T10">
-        <v>0.0821282496112532</v>
+        <v>0.07027643919282867</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.798175000000001</v>
+        <v>4.650307000000001</v>
       </c>
       <c r="H11">
-        <v>20.394525</v>
+        <v>13.950921</v>
       </c>
       <c r="I11">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="J11">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N11">
         <v>178.097596</v>
       </c>
       <c r="O11">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P11">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q11">
-        <v>403.5795415624334</v>
+        <v>276.0694991206573</v>
       </c>
       <c r="R11">
-        <v>3632.215874061901</v>
+        <v>2484.625492085916</v>
       </c>
       <c r="S11">
-        <v>0.04130231261352558</v>
+        <v>0.03274761364628207</v>
       </c>
       <c r="T11">
-        <v>0.04130231261352559</v>
+        <v>0.03274761364628208</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.798175000000001</v>
+        <v>4.650307000000001</v>
       </c>
       <c r="H12">
-        <v>20.394525</v>
+        <v>13.950921</v>
       </c>
       <c r="I12">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="J12">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N12">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O12">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P12">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q12">
-        <v>130.6149904975834</v>
+        <v>77.34740150476168</v>
       </c>
       <c r="R12">
-        <v>1175.53491447825</v>
+        <v>696.126613542855</v>
       </c>
       <c r="S12">
-        <v>0.01336713240879011</v>
+        <v>0.009175018714815571</v>
       </c>
       <c r="T12">
-        <v>0.01336713240879012</v>
+        <v>0.009175018714815571</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.798175000000001</v>
+        <v>4.650307000000001</v>
       </c>
       <c r="H13">
-        <v>20.394525</v>
+        <v>13.950921</v>
       </c>
       <c r="I13">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="J13">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N13">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O13">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P13">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q13">
-        <v>386.4426952242584</v>
+        <v>278.5655839550564</v>
       </c>
       <c r="R13">
-        <v>3477.984257018325</v>
+        <v>2507.090255595508</v>
       </c>
       <c r="S13">
-        <v>0.03954852850958144</v>
+        <v>0.03304370148664693</v>
       </c>
       <c r="T13">
-        <v>0.03954852850958145</v>
+        <v>0.03304370148664694</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.752692000000001</v>
+        <v>7.184856000000001</v>
       </c>
       <c r="H14">
-        <v>26.258076</v>
+        <v>21.554568</v>
       </c>
       <c r="I14">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="J14">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N14">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O14">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P14">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q14">
-        <v>1033.229140473868</v>
+        <v>915.3453112620881</v>
       </c>
       <c r="R14">
-        <v>9299.062264264812</v>
+        <v>8238.107801358794</v>
       </c>
       <c r="S14">
-        <v>0.1057406249980942</v>
+        <v>0.1085790886049523</v>
       </c>
       <c r="T14">
-        <v>0.1057406249980942</v>
+        <v>0.1085790886049524</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.752692000000001</v>
+        <v>7.184856000000001</v>
       </c>
       <c r="H15">
-        <v>26.258076</v>
+        <v>21.554568</v>
       </c>
       <c r="I15">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="J15">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N15">
         <v>178.097596</v>
       </c>
       <c r="O15">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P15">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q15">
-        <v>519.6111345761441</v>
+        <v>426.535193735392</v>
       </c>
       <c r="R15">
-        <v>4676.500211185296</v>
+        <v>3838.816743618528</v>
       </c>
       <c r="S15">
-        <v>0.0531769807623229</v>
+        <v>0.05059599041357304</v>
       </c>
       <c r="T15">
-        <v>0.0531769807623229</v>
+        <v>0.05059599041357305</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.752692000000001</v>
+        <v>7.184856000000001</v>
       </c>
       <c r="H16">
-        <v>26.258076</v>
+        <v>21.554568</v>
       </c>
       <c r="I16">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="J16">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N16">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O16">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P16">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q16">
-        <v>168.16760121772</v>
+        <v>119.50392560876</v>
       </c>
       <c r="R16">
-        <v>1513.50841095948</v>
+        <v>1075.53533047884</v>
       </c>
       <c r="S16">
-        <v>0.01721026494571822</v>
+        <v>0.01417566372784742</v>
       </c>
       <c r="T16">
-        <v>0.01721026494571822</v>
+        <v>0.01417566372784742</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.752692000000001</v>
+        <v>7.184856000000001</v>
       </c>
       <c r="H17">
-        <v>26.258076</v>
+        <v>21.554568</v>
       </c>
       <c r="I17">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="J17">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N17">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O17">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P17">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q17">
-        <v>497.5473398298521</v>
+        <v>430.3917154873841</v>
       </c>
       <c r="R17">
-        <v>4477.926058468668</v>
+        <v>3873.525439386457</v>
       </c>
       <c r="S17">
-        <v>0.05091897297400927</v>
+        <v>0.05105345451139981</v>
       </c>
       <c r="T17">
-        <v>0.05091897297400927</v>
+        <v>0.05105345451139982</v>
       </c>
     </row>
   </sheetData>
